--- a/SeleniumTestes/UFS_para_teste.xlsx
+++ b/SeleniumTestes/UFS_para_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.cabral\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.cabral\Desktop\SeleniumTestes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1F904-6C10-4956-9942-07219F1ABC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9825E231-C92F-4629-B1AB-5FACD87E4A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>UF</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>Cabo de Santo Agostinho</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Campo Grande</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Parnamirim</t>
+  </si>
+  <si>
+    <t>RN</t>
   </si>
 </sst>
 </file>
@@ -366,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +458,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
